--- a/739.xlsx
+++ b/739.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04e8644ff1ae8f6b/Documents/GitHub/Lab3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3c93040403f929d/Documents/GitHub/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="11_F25DC773A252ABDACC10483FF99E669C5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{494F7505-347F-4A07-A197-8DE8412D26F2}"/>
+  <xr:revisionPtr revIDLastSave="968" documentId="11_F25DC773A252ABDACC10483FF99E669C5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014AF4C1-2041-4615-B2CD-02A7CAD15B84}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="1240" windowWidth="14250" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="General\ &quot;ms&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +119,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,10 +160,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -164,11 +177,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17320,88 +17341,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="46" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA56" sqref="AA56"/>
+    <sheetView tabSelected="1" topLeftCell="G49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="6.21875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" style="1"/>
+    <col min="15" max="15" width="6.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" style="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="1" customWidth="1"/>
-    <col min="21" max="22" width="13.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
+    <col min="21" max="22" width="13.453125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.90625" style="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.77734375" style="1" customWidth="1"/>
-    <col min="28" max="29" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="1"/>
+    <col min="27" max="27" width="13.81640625" style="1" customWidth="1"/>
+    <col min="28" max="29" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>10000</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
         <v>30000</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>50000</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
         <v>100000</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <v>300000</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <v>500000</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="5"/>
       <c r="Q2" s="1">
         <v>10000</v>
       </c>
@@ -17439,44 +17460,44 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -17522,44 +17543,44 @@
         <v>250000500001</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>154</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>100010001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>1182</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>900030001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="10">
         <v>3279</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="7">
         <v>2500050001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="10">
         <v>15399</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>10000100001</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="10">
         <v>120283</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="7">
         <v>90000300001</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="10">
         <v>385329</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="7">
         <v>250000500001</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -17605,44 +17626,44 @@
         <v>62537755868</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>52</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>25211380</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>457</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>225682802</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="10">
         <v>1263</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>624643031</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>5217</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>2501171774</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="10">
         <v>51803</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="7">
         <v>22492640028</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="10">
         <v>149156</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="7">
         <v>62537755868</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -17688,44 +17709,44 @@
         <v>250000499999</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>225</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>100009999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>2112</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>900029999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="10">
         <v>5943</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <v>2500049999</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="10">
         <v>26649</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
         <v>10000099999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="10">
         <v>239357</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="7">
         <v>90000299999</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="10">
         <v>705384</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="7">
         <v>250000499999</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -17771,44 +17792,44 @@
         <v>1999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>39998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>119998</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="7">
         <v>199998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>399998</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="10">
         <v>2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="7">
         <v>1199998</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="10">
         <v>5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="7">
         <v>1999998</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -17854,44 +17875,44 @@
         <v>65402913</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>624254</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>6</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="7">
         <v>2243635</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="10">
         <v>11</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="7">
         <v>4388198</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>30</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>10232607</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <v>83</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="7">
         <v>33914122</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="10">
         <v>151</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="7">
         <v>65402913</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -17937,44 +17958,44 @@
         <v>15483742</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>257824</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>825637</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>1354663</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="10">
         <v>10</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>2939704</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="10">
         <v>33</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
         <v>9249043</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="10">
         <v>55</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="7">
         <v>15483742</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -18020,44 +18041,44 @@
         <v>31156164</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>452844</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>1502077</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="10">
         <v>19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>2616656</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="10">
         <v>26</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>5533614</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="10">
         <v>78</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>18003904</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="10">
         <v>130</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="7">
         <v>31156164</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -18103,44 +18124,44 @@
         <v>12397150</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>181779</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="7">
         <v>602767</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="10">
         <v>4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="7">
         <v>1071662</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>7</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
         <v>2267616</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="10">
         <v>25</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
         <v>7200390</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="10">
         <v>42</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="7">
         <v>12397150</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -18186,44 +18207,44 @@
         <v>1500003</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>30003</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>90003</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="7">
         <v>150003</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="7">
         <v>300003</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="10">
         <v>2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="7">
         <v>900003</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="10">
         <v>7</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="7">
         <v>1500003</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -18269,44 +18290,44 @@
         <v>8500072</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>140058</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="7">
         <v>510072</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="10">
         <v>2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>850072</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="10">
         <v>6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>1700072</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="10">
         <v>21</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>5100072</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="10">
         <v>35</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="7">
         <v>8500072</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -18352,92 +18373,92 @@
         <v>4288995</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>94164</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>292915</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="10">
         <v>2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="7">
         <v>476986</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>889197</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="10">
         <v>10</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="7">
         <v>2538097</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="10">
         <v>19</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="7">
         <v>4288995</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>10000</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>30000</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>50000</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
         <v>100000</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
         <v>300000</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
         <v>500000</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="5"/>
       <c r="Q21" s="1">
         <v>10000</v>
       </c>
@@ -18475,44 +18496,44 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P22" s="4" t="s">
@@ -18558,44 +18579,44 @@
         <v>250000500001</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="10">
         <v>156</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>100010001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="10">
         <v>1194</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <v>900030001</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="10">
         <v>3308</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="7">
         <v>2500050001</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="10">
         <v>16484</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <v>10000100001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="10">
         <v>130053</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="7">
         <v>90000300001</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="10">
         <v>396768</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="7">
         <v>250000500001</v>
       </c>
       <c r="P23" s="4" t="s">
@@ -18641,44 +18662,44 @@
         <v>1206891</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="10">
         <v>1</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>98659</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="7">
         <v>262191</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="7">
         <v>289379</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="10">
         <v>1</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="7">
         <v>365471</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="10">
         <v>2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="7">
         <v>774823</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="10">
         <v>3</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="7">
         <v>1206891</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -18724,44 +18745,44 @@
         <v>250000499999</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="10">
         <v>133</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>100009999</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="10">
         <v>1298</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="7">
         <v>900029999</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="10">
         <v>3718</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="7">
         <v>2500049999</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="10">
         <v>17815</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="7">
         <v>10000099999</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="10">
         <v>158561</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="7">
         <v>90000299999</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="10">
         <v>412863</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="7">
         <v>250000499999</v>
       </c>
       <c r="P25" s="4" t="s">
@@ -18807,44 +18828,44 @@
         <v>1065026</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="10">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>36468</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="7">
         <v>114874</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="10">
         <v>1</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="7">
         <v>165176</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="10">
         <v>1</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="7">
         <v>265318</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="10">
         <v>1</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="7">
         <v>660026</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="10">
         <v>1</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="7">
         <v>1065026</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -18890,44 +18911,44 @@
         <v>25683292</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="10">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>400508</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="10">
         <v>3</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="7">
         <v>1329549</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="10">
         <v>4</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="7">
         <v>2233572</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="10">
         <v>10</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
         <v>4720284</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="10">
         <v>24</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="7">
         <v>15443419</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="10">
         <v>40</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="7">
         <v>25683292</v>
       </c>
       <c r="P27" s="4" t="s">
@@ -18973,44 +18994,44 @@
         <v>4364053</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="10">
         <v>1</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>96247</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="10">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="7">
         <v>278602</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="10">
         <v>1</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="7">
         <v>442786</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="10">
         <v>3</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="7">
         <v>873946</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="10">
         <v>6</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="7">
         <v>2603278</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="10">
         <v>9</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="7">
         <v>4364053</v>
       </c>
       <c r="P28" s="4" t="s">
@@ -19056,44 +19077,44 @@
         <v>27188534</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="10">
         <v>2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>417641</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="10">
         <v>6</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="7">
         <v>1375286</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="10">
         <v>15</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="7">
         <v>2345825</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="10">
         <v>18</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="7">
         <v>4905110</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="10">
         <v>53</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="7">
         <v>15778531</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="10">
         <v>93</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="7">
         <v>27188534</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -19139,44 +19160,44 @@
         <v>10310770</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="10">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>154988</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="7">
         <v>501974</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="10">
         <v>2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="7">
         <v>913899</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="10">
         <v>5</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
         <v>1927728</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="10">
         <v>10</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="7">
         <v>6058281</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="10">
         <v>18</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="7">
         <v>10310770</v>
       </c>
       <c r="P30" s="4" t="s">
@@ -19222,44 +19243,44 @@
         <v>1500003</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="10">
         <v>1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>30003</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="10">
         <v>1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="7">
         <v>90003</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="7">
         <v>150003</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="10">
         <v>1</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="7">
         <v>300003</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="10">
         <v>2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="7">
         <v>900003</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="10">
         <v>4</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="7">
         <v>1500003</v>
       </c>
       <c r="P31" s="4" t="s">
@@ -19305,44 +19326,44 @@
         <v>10000086</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>140058</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="10">
         <v>2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="7">
         <v>510072</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="10">
         <v>2</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="7">
         <v>850072</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="10">
         <v>7</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="7">
         <v>1700072</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="10">
         <v>25</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="7">
         <v>6000086</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="10">
         <v>40</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="7">
         <v>10000086</v>
       </c>
       <c r="P32" s="4" t="s">
@@ -19388,92 +19409,92 @@
         <v>6174959</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="10">
         <v>1</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>123465</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="7">
         <v>370461</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="10">
         <v>1</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="7">
         <v>617457</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="10">
         <v>2</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="7">
         <v>1234961</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="10">
         <v>8</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="7">
         <v>3704961</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="10">
         <v>13</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="7">
         <v>6174959</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>10000</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
         <v>30000</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
         <v>50000</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5">
         <v>100000</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>300000</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5">
         <v>500000</v>
       </c>
-      <c r="M40" s="6"/>
+      <c r="M40" s="5"/>
       <c r="Q40" s="1">
         <v>10000</v>
       </c>
@@ -19511,44 +19532,44 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P41" s="4" t="s">
@@ -19594,44 +19615,44 @@
         <v>250000500001</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="10">
         <v>164</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>100010001</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="10">
         <v>1231</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="7">
         <v>900030001</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="10">
         <v>3336</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="7">
         <v>2500050001</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="10">
         <v>16822</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="7">
         <v>10000100001</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="10">
         <v>133228</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="7">
         <v>90000300001</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="10">
         <v>395768</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="7">
         <v>250000500001</v>
       </c>
       <c r="P42" s="4" t="s">
@@ -19677,44 +19698,44 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="10">
         <v>1</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>20001</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="10">
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="7">
         <v>60001</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="10">
         <v>1</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="7">
         <v>100001</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="10">
         <v>1</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="7">
         <v>200001</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="10">
         <v>1</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="7">
         <v>600001</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="10">
         <v>3</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="7">
         <v>1000001</v>
       </c>
       <c r="P43" s="4" t="s">
@@ -19760,44 +19781,44 @@
         <v>250000499999</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="10">
         <v>126</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>100009999</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="10">
         <v>1175</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="7">
         <v>900029999</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="10">
         <v>3391</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="7">
         <v>2500049999</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="10">
         <v>16086</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="7">
         <v>10000099999</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="10">
         <v>141014</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="7">
         <v>90000299999</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="10">
         <v>410314</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="7">
         <v>250000499999</v>
       </c>
       <c r="P44" s="4" t="s">
@@ -19843,44 +19864,44 @@
         <v>1000002</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="10">
         <v>1</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>20002</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="10">
         <v>1</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="7">
         <v>60002</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="10">
         <v>1</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="7">
         <v>100002</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="10">
         <v>1</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="7">
         <v>200002</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="10">
         <v>1</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="7">
         <v>600002</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="10">
         <v>1</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="7">
         <v>1000002</v>
       </c>
       <c r="P45" s="4" t="s">
@@ -19926,44 +19947,44 @@
         <v>25500058</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="10">
         <v>1</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>360042</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="10">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="7">
         <v>1170050</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="10">
         <v>3</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="7">
         <v>2100049</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="10">
         <v>8</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="7">
         <v>4500051</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="10">
         <v>24</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="7">
         <v>15300061</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="10">
         <v>40</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="7">
         <v>25500058</v>
       </c>
       <c r="P46" s="4" t="s">
@@ -20009,44 +20030,44 @@
         <v>4363573</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="10">
         <v>1</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>93535</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="10">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="7">
         <v>277030</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="10">
         <v>1</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="7">
         <v>442795</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="10">
         <v>1</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="7">
         <v>873967</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="10">
         <v>7</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="7">
         <v>2603092</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="10">
         <v>10</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="7">
         <v>4363573</v>
       </c>
       <c r="P47" s="4" t="s">
@@ -20092,44 +20113,44 @@
         <v>27143914</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="10">
         <v>1</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>401834</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="10">
         <v>6</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="7">
         <v>1323962</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="10">
         <v>9</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="7">
         <v>2301434</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="10">
         <v>18</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="7">
         <v>4852874</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="10">
         <v>49</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="7">
         <v>15729866</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="10">
         <v>89</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="7">
         <v>27143914</v>
       </c>
       <c r="P48" s="4" t="s">
@@ -20175,44 +20196,44 @@
         <v>10310734</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="10">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>154960</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="10">
         <v>1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="7">
         <v>501930</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="10">
         <v>2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="7">
         <v>913851</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="10">
         <v>3</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="7">
         <v>1927692</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="10">
         <v>11</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="7">
         <v>6058229</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="10">
         <v>19</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="7">
         <v>10310734</v>
       </c>
       <c r="P49" s="4" t="s">
@@ -20258,44 +20279,44 @@
         <v>1500003</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="10">
         <v>1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>30003</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="10">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="7">
         <v>90003</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="10">
         <v>1</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="7">
         <v>150003</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="10">
         <v>1</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="7">
         <v>300003</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="10">
         <v>3</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="7">
         <v>900003</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="10">
         <v>4</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="7">
         <v>1500003</v>
       </c>
       <c r="P50" s="4" t="s">
@@ -20341,44 +20362,44 @@
         <v>10000086</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="10">
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>140058</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="10">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="7">
         <v>510072</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="10">
         <v>3</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="7">
         <v>850072</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="10">
         <v>6</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="7">
         <v>1700072</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="10">
         <v>27</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="7">
         <v>6000086</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="10">
         <v>40</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="7">
         <v>10000086</v>
       </c>
       <c r="P51" s="4" t="s">
@@ -20424,92 +20445,92 @@
         <v>6174991</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="10">
         <v>1</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>123491</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="10">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="7">
         <v>370491</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="10">
         <v>1</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="7">
         <v>617491</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="10">
         <v>2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="7">
         <v>1234991</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="10">
         <v>7</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="7">
         <v>3704991</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="10">
         <v>13</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="7">
         <v>6174991</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>10000</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5">
         <v>30000</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
         <v>50000</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5">
         <v>100000</v>
       </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6">
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
         <v>300000</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6">
+      <c r="K59" s="5"/>
+      <c r="L59" s="5">
         <v>500000</v>
       </c>
-      <c r="M59" s="6"/>
+      <c r="M59" s="5"/>
       <c r="Q59" s="1">
         <v>10000</v>
       </c>
@@ -20547,44 +20568,44 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P60" s="4" t="s">
@@ -20630,44 +20651,44 @@
         <v>250000500001</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="10">
         <v>161</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="7">
         <v>100010001</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="10">
         <v>1231</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="7">
         <v>900030001</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="10">
         <v>3512</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="7">
         <v>2500050001</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="10">
         <v>14611</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="7">
         <v>10000100001</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="10">
         <v>143706</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="7">
         <v>90000300001</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="10">
         <v>415981</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="7">
         <v>250000500001</v>
       </c>
       <c r="P61" s="4" t="s">
@@ -20713,44 +20734,44 @@
         <v>125000750001</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="10">
         <v>106</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>50015001</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="10">
         <v>948</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="7">
         <v>450045001</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="10">
         <v>2559</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="7">
         <v>1250075001</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="10">
         <v>10577</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="7">
         <v>5000150001</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="10">
         <v>105669</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="7">
         <v>45000450001</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="10">
         <v>311741</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="7">
         <v>125000750001</v>
       </c>
       <c r="P62" s="4" t="s">
@@ -20796,44 +20817,44 @@
         <v>250000499999</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="10">
         <v>161</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="7">
         <v>100009999</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="10">
         <v>1500</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="7">
         <v>900029999</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="10">
         <v>4309</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="7">
         <v>2500049999</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="10">
         <v>20626</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="7">
         <v>10000099999</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="10">
         <v>185045</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="7">
         <v>90000299999</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="10">
         <v>495842</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="7">
         <v>250000499999</v>
       </c>
       <c r="P63" s="4" t="s">
@@ -20879,44 +20900,44 @@
         <v>1999998</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="10">
         <v>1</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="7">
         <v>39998</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="10">
         <v>1</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="7">
         <v>119998</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="10">
         <v>1</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="7">
         <v>199998</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="10">
         <v>1</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="7">
         <v>399998</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="10">
         <v>3</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="7">
         <v>1199998</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="10">
         <v>4</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="7">
         <v>1999998</v>
       </c>
       <c r="P64" s="4" t="s">
@@ -20962,44 +20983,44 @@
         <v>33857581</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="10">
         <v>1</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>475175</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="10">
         <v>3</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="7">
         <v>1554051</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="10">
         <v>4</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="7">
         <v>2844628</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="10">
         <v>11</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="7">
         <v>6089190</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="10">
         <v>34</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="7">
         <v>20001852</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="10">
         <v>57</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="7">
         <v>33857581</v>
       </c>
       <c r="P65" s="4" t="s">
@@ -21045,44 +21066,44 @@
         <v>27856483</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="10">
         <v>2</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>385648</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="10">
         <v>4</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="7">
         <v>1282420</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="10">
         <v>7</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="7">
         <v>2285065</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="10">
         <v>15</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="7">
         <v>4844227</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="10">
         <v>47</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="7">
         <v>15966193</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="10">
         <v>82</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="7">
         <v>27856483</v>
       </c>
       <c r="P66" s="4" t="s">
@@ -21128,44 +21149,44 @@
         <v>27143914</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="10">
         <v>1</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="7">
         <v>401834</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="10">
         <v>7</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="7">
         <v>1323962</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="10">
         <v>11</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="7">
         <v>2301434</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="10">
         <v>17</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="7">
         <v>4852874</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="10">
         <v>51</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="7">
         <v>15729866</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="10">
         <v>99</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="7">
         <v>27143914</v>
       </c>
       <c r="P67" s="4" t="s">
@@ -21211,44 +21232,44 @@
         <v>10810731</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="10">
         <v>1</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="7">
         <v>164957</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="10">
         <v>2</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="7">
         <v>531927</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="10">
         <v>3</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="7">
         <v>963848</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="10">
         <v>4</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="7">
         <v>2027689</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="10">
         <v>12</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="7">
         <v>6358226</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="10">
         <v>19</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="7">
         <v>10810731</v>
       </c>
       <c r="P68" s="4" t="s">
@@ -21294,44 +21315,44 @@
         <v>1500003</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="10">
         <v>1</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="7">
         <v>30003</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="10">
         <v>1</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="7">
         <v>90003</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="10">
         <v>1</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="7">
         <v>150003</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="10">
         <v>1</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="7">
         <v>300003</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="10">
         <v>3</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="7">
         <v>900003</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="10">
         <v>5</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="7">
         <v>1500003</v>
       </c>
       <c r="P69" s="4" t="s">
@@ -21377,44 +21398,44 @@
         <v>10000086</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="10">
         <v>1</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="7">
         <v>140058</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="10">
         <v>1</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="7">
         <v>510072</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="10">
         <v>3</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="7">
         <v>850072</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="10">
         <v>6</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="7">
         <v>1700072</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="10">
         <v>25</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="7">
         <v>6000086</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="10">
         <v>39</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="7">
         <v>10000086</v>
       </c>
       <c r="P70" s="4" t="s">
@@ -21460,63 +21481,49 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="10">
         <v>1</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="7">
         <v>106000</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="10">
         <v>1</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="7">
         <v>318000</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="10">
         <v>1</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="7">
         <v>530000</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="10">
         <v>2</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="7">
         <v>1060000</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="10">
         <v>6</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="7">
         <v>3180000</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="10">
         <v>13</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="7">
         <v>5300000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="B21:C21"/>
@@ -21531,6 +21538,20 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/739.xlsx
+++ b/739.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="968" documentId="11_F25DC773A252ABDACC10483FF99E669C5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014AF4C1-2041-4615-B2CD-02A7CAD15B84}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="1240" windowWidth="14250" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,8 +90,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="General\ &quot;ms&quot;"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="General\ &quot;ms&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -174,19 +174,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -17341,25 +17341,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.90625" style="1"/>
     <col min="15" max="15" width="6.1796875" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.81640625" style="1" customWidth="1"/>
@@ -17379,50 +17379,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="11">
         <v>10000</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
         <v>30000</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11">
         <v>50000</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11">
         <v>100000</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11">
         <v>300000</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11">
         <v>500000</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="11"/>
       <c r="Q2" s="1">
         <v>10000</v>
       </c>
@@ -17464,40 +17464,40 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -17547,40 +17547,40 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>154</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>100010001</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1182</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>900030001</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>3279</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>2500050001</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>15399</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>10000100001</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>120283</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>90000300001</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>385329</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>250000500001</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -17630,40 +17630,40 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>52</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>25211380</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>457</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>225682802</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1263</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>624643031</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>5217</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>2501171774</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>51803</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>22492640028</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <v>149156</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>62537755868</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -17713,40 +17713,40 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>225</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>100009999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>2112</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>900029999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>5943</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>2500049999</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>26649</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>10000099999</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>239357</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>90000299999</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>705384</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>250000499999</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -17796,40 +17796,40 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>39998</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>119998</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>199998</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>399998</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>1199998</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <v>5</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>1999998</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -17879,40 +17879,40 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>624254</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>2243635</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>11</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>4388198</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>30</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>10232607</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>83</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>33914122</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>151</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>65402913</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -17962,40 +17962,40 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>257824</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>825637</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>1354663</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>10</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>2939704</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>33</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>9249043</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>55</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>15483742</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -18045,40 +18045,40 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>452844</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>8</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1502077</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>19</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2616656</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>5533614</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>78</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>18003904</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>130</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>31156164</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -18128,40 +18128,40 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>181779</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>602767</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>4</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1071662</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>7</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>2267616</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>25</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>7200390</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>42</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>12397150</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -18211,40 +18211,40 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>30003</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>90003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>150003</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>300003</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>2</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>900003</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>7</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>1500003</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -18294,40 +18294,40 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>140058</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>510072</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>850072</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>6</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>1700072</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>21</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>5100072</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <v>35</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>8500072</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -18377,88 +18377,88 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>94164</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>292915</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>476986</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>3</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>889197</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>10</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>2538097</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>19</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>4288995</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="11">
         <v>10000</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <v>30000</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
         <v>50000</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
         <v>100000</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <v>300000</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
         <v>500000</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="11"/>
       <c r="Q21" s="1">
         <v>10000</v>
       </c>
@@ -18500,40 +18500,40 @@
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P22" s="4" t="s">
@@ -18583,40 +18583,40 @@
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>156</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>100010001</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>1194</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>900030001</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>3308</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>2500050001</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>16484</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>10000100001</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>130053</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>90000300001</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <v>396768</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>250000500001</v>
       </c>
       <c r="P23" s="4" t="s">
@@ -18666,40 +18666,40 @@
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>98659</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>1</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>262191</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>289379</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>1</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>365471</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>2</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>774823</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>3</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>1206891</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -18749,40 +18749,40 @@
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>133</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>100009999</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>1298</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>900029999</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>3718</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>2500049999</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>17815</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>10000099999</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>158561</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>90000299999</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <v>412863</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>250000499999</v>
       </c>
       <c r="P25" s="4" t="s">
@@ -18832,40 +18832,40 @@
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>1</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>36468</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>114874</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>1</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>165176</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>265318</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>1</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>660026</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>1</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>1065026</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -18915,40 +18915,40 @@
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>400508</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>1329549</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>4</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>2233572</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>10</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>4720284</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>24</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>15443419</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <v>40</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>25683292</v>
       </c>
       <c r="P27" s="4" t="s">
@@ -18998,40 +18998,40 @@
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>1</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>96247</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>278602</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>442786</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>3</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>873946</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>6</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>2603278</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>9</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>4364053</v>
       </c>
       <c r="P28" s="4" t="s">
@@ -19081,40 +19081,40 @@
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>2</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>417641</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>6</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>1375286</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>15</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>2345825</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>18</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>4905110</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>53</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>15778531</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <v>93</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>27188534</v>
       </c>
       <c r="P29" s="4" t="s">
@@ -19164,40 +19164,40 @@
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>154988</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>501974</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>913899</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>5</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>1927728</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>10</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <v>6058281</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>18</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>10310770</v>
       </c>
       <c r="P30" s="4" t="s">
@@ -19247,40 +19247,40 @@
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>1</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>30003</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>1</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>90003</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>150003</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>1</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>300003</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>2</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <v>900003</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <v>4</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>1500003</v>
       </c>
       <c r="P31" s="4" t="s">
@@ -19330,40 +19330,40 @@
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>1</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>140058</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>510072</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>850072</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>7</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>1700072</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>25</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>6000086</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>40</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>10000086</v>
       </c>
       <c r="P32" s="4" t="s">
@@ -19413,88 +19413,88 @@
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>123465</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>1</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>370461</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>1</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>617457</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>1234961</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>8</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>3704961</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="9">
         <v>13</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>6174959</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="11">
         <v>10000</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11">
         <v>30000</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11">
         <v>50000</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11">
         <v>100000</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5">
+      <c r="I40" s="11"/>
+      <c r="J40" s="11">
         <v>300000</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5">
+      <c r="K40" s="11"/>
+      <c r="L40" s="11">
         <v>500000</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="11"/>
       <c r="Q40" s="1">
         <v>10000</v>
       </c>
@@ -19536,40 +19536,40 @@
       <c r="A41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P41" s="4" t="s">
@@ -19619,40 +19619,40 @@
       <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>164</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>100010001</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>1231</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>900030001</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>3336</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>2500050001</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>16822</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>10000100001</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>133228</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>90000300001</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <v>395768</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>250000500001</v>
       </c>
       <c r="P42" s="4" t="s">
@@ -19702,40 +19702,40 @@
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>20001</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>1</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>60001</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>100001</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>200001</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>1</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <v>600001</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <v>3</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>1000001</v>
       </c>
       <c r="P43" s="4" t="s">
@@ -19785,40 +19785,40 @@
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>126</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>100009999</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>1175</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>900029999</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>3391</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>2500049999</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>16086</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>10000099999</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>141014</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <v>90000299999</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="9">
         <v>410314</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>250000499999</v>
       </c>
       <c r="P44" s="4" t="s">
@@ -19868,40 +19868,40 @@
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>1</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>20002</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>1</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>60002</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>1</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>100002</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>1</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>200002</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>1</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>600002</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <v>1</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>1000002</v>
       </c>
       <c r="P45" s="4" t="s">
@@ -19951,40 +19951,40 @@
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>1</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>360042</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>1</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>1170050</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>3</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>2100049</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>8</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>4500051</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>24</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <v>15300061</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
         <v>40</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>25500058</v>
       </c>
       <c r="P46" s="4" t="s">
@@ -20034,40 +20034,40 @@
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>1</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>93535</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>1</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>277030</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>1</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>442795</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>1</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>873967</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>7</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>2603092</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <v>10</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>4363573</v>
       </c>
       <c r="P47" s="4" t="s">
@@ -20117,40 +20117,40 @@
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>1</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>401834</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>6</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>1323962</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>9</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>2301434</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>18</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>4852874</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>49</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <v>15729866</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="9">
         <v>89</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <v>27143914</v>
       </c>
       <c r="P48" s="4" t="s">
@@ -20200,40 +20200,40 @@
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>1</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>154960</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>1</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>501930</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>2</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <v>913851</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>3</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>1927692</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>11</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>6058229</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <v>19</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>10310734</v>
       </c>
       <c r="P49" s="4" t="s">
@@ -20283,40 +20283,40 @@
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>1</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>30003</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>1</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>90003</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>1</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="6">
         <v>150003</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>1</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>300003</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>3</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="6">
         <v>900003</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <v>4</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>1500003</v>
       </c>
       <c r="P50" s="4" t="s">
@@ -20366,40 +20366,40 @@
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>1</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>140058</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>1</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>510072</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>3</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <v>850072</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>6</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>1700072</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>27</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="6">
         <v>6000086</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="9">
         <v>40</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <v>10000086</v>
       </c>
       <c r="P51" s="4" t="s">
@@ -20449,88 +20449,88 @@
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>1</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>123491</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>1</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>370491</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>1</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="6">
         <v>617491</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>2</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>1234991</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="9">
         <v>7</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="6">
         <v>3704991</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="9">
         <v>13</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="6">
         <v>6174991</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="11">
         <v>10000</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11">
         <v>30000</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11">
         <v>50000</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5">
+      <c r="G59" s="11"/>
+      <c r="H59" s="11">
         <v>100000</v>
       </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5">
+      <c r="I59" s="11"/>
+      <c r="J59" s="11">
         <v>300000</v>
       </c>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5">
+      <c r="K59" s="11"/>
+      <c r="L59" s="11">
         <v>500000</v>
       </c>
-      <c r="M59" s="5"/>
+      <c r="M59" s="11"/>
       <c r="Q59" s="1">
         <v>10000</v>
       </c>
@@ -20572,40 +20572,40 @@
       <c r="A60" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="6" t="s">
+      <c r="K60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P60" s="4" t="s">
@@ -20655,40 +20655,40 @@
       <c r="A61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>161</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>100010001</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>1231</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>900030001</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>3512</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="6">
         <v>2500050001</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>14611</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>10000100001</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>143706</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="6">
         <v>90000300001</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L61" s="9">
         <v>415981</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="6">
         <v>250000500001</v>
       </c>
       <c r="P61" s="4" t="s">
@@ -20738,40 +20738,40 @@
       <c r="A62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="9">
         <v>106</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>50015001</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>948</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>450045001</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>2559</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="6">
         <v>1250075001</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>10577</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>5000150001</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="9">
         <v>105669</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="6">
         <v>45000450001</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="9">
         <v>311741</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="6">
         <v>125000750001</v>
       </c>
       <c r="P62" s="4" t="s">
@@ -20821,40 +20821,40 @@
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>161</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>100009999</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>1500</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>900029999</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>4309</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <v>2500049999</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>20626</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>10000099999</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>185045</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="6">
         <v>90000299999</v>
       </c>
-      <c r="L63" s="10">
+      <c r="L63" s="9">
         <v>495842</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="6">
         <v>250000499999</v>
       </c>
       <c r="P63" s="4" t="s">
@@ -20904,40 +20904,40 @@
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="9">
         <v>1</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>39998</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>1</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>119998</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>1</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <v>199998</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>1</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>399998</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>3</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <v>1199998</v>
       </c>
-      <c r="L64" s="10">
+      <c r="L64" s="9">
         <v>4</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <v>1999998</v>
       </c>
       <c r="P64" s="4" t="s">
@@ -20987,40 +20987,40 @@
       <c r="A65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>1</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>475175</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>3</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>1554051</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>4</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="6">
         <v>2844628</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>11</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>6089190</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="9">
         <v>34</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="6">
         <v>20001852</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="9">
         <v>57</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="6">
         <v>33857581</v>
       </c>
       <c r="P65" s="4" t="s">
@@ -21070,40 +21070,40 @@
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="9">
         <v>2</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>385648</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>4</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>1282420</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <v>7</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="6">
         <v>2285065</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>15</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>4844227</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="9">
         <v>47</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="6">
         <v>15966193</v>
       </c>
-      <c r="L66" s="10">
+      <c r="L66" s="9">
         <v>82</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="6">
         <v>27856483</v>
       </c>
       <c r="P66" s="4" t="s">
@@ -21153,40 +21153,40 @@
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>1</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>401834</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>7</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>1323962</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>11</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="6">
         <v>2301434</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>17</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>4852874</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="9">
         <v>51</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="6">
         <v>15729866</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L67" s="9">
         <v>99</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="6">
         <v>27143914</v>
       </c>
       <c r="P67" s="4" t="s">
@@ -21236,40 +21236,40 @@
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="9">
         <v>1</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>164957</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>2</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>531927</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>3</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="6">
         <v>963848</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>4</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>2027689</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="9">
         <v>12</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="6">
         <v>6358226</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="9">
         <v>19</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="6">
         <v>10810731</v>
       </c>
       <c r="P68" s="4" t="s">
@@ -21319,40 +21319,40 @@
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="9">
         <v>1</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>30003</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>1</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>90003</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>1</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="6">
         <v>150003</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>1</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>300003</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69" s="9">
         <v>3</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="6">
         <v>900003</v>
       </c>
-      <c r="L69" s="10">
+      <c r="L69" s="9">
         <v>5</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M69" s="6">
         <v>1500003</v>
       </c>
       <c r="P69" s="4" t="s">
@@ -21402,40 +21402,40 @@
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>1</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>140058</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>1</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>510072</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <v>3</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="6">
         <v>850072</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>6</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>1700072</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="9">
         <v>25</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="6">
         <v>6000086</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="9">
         <v>39</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="6">
         <v>10000086</v>
       </c>
       <c r="P70" s="4" t="s">
@@ -21485,45 +21485,59 @@
       <c r="A71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="9">
         <v>1</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>106000</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>1</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>318000</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>1</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="6">
         <v>530000</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>2</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <v>1060000</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="9">
         <v>6</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="6">
         <v>3180000</v>
       </c>
-      <c r="L71" s="10">
+      <c r="L71" s="9">
         <v>13</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="6">
         <v>5300000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="B21:C21"/>
@@ -21538,20 +21552,6 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/739.xlsx
+++ b/739.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3c93040403f929d/Documents/GitHub/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="968" documentId="11_F25DC773A252ABDACC10483FF99E669C5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{014AF4C1-2041-4615-B2CD-02A7CAD15B84}"/>
+  <xr:revisionPtr revIDLastSave="971" documentId="11_F25DC773A252ABDACC10483FF99E669C5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8428E61-607A-413C-8BE9-F3BEA6821701}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1210" yWindow="160" windowWidth="16460" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17341,8 +17341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
